--- a/Faza 1/2b Format partner budget - Horizon2020 - WHO.xlsx
+++ b/Faza 1/2b Format partner budget - Horizon2020 - WHO.xlsx
@@ -1500,10 +1500,13 @@
         <f t="shared" ref="Q14:Q22" si="2">+J14+K14+L14+M14+O14+P14</f>
         <v>94637.5</v>
       </c>
-      <c r="R14" s="36"/>
+      <c r="R14" s="37">
+        <f t="shared" ref="R14:R26" si="3">Q14</f>
+        <v>94637.5</v>
+      </c>
       <c r="S14" s="37">
-        <f t="shared" ref="S14:S22" si="3">+Q14-R14</f>
-        <v>94637.5</v>
+        <f t="shared" ref="S14:S22" si="4">+Q14-R14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
@@ -1541,7 +1544,7 @@
       </c>
       <c r="N15" s="35"/>
       <c r="O15" s="36">
-        <f t="shared" ref="O15:O22" si="4">+$O$4*(J15+K15-N15)</f>
+        <f t="shared" ref="O15:O22" si="5">+$O$4*(J15+K15-N15)</f>
         <v>12602.5</v>
       </c>
       <c r="P15" s="35"/>
@@ -1549,10 +1552,13 @@
         <f t="shared" si="2"/>
         <v>69012.5</v>
       </c>
-      <c r="R15" s="36"/>
-      <c r="S15" s="37">
+      <c r="R15" s="37">
         <f t="shared" si="3"/>
         <v>69012.5</v>
+      </c>
+      <c r="S15" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -1586,7 +1592,7 @@
       <c r="M16" s="35"/>
       <c r="N16" s="35"/>
       <c r="O16" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27850</v>
       </c>
       <c r="P16" s="35"/>
@@ -1594,10 +1600,13 @@
         <f t="shared" si="2"/>
         <v>139250</v>
       </c>
-      <c r="R16" s="36"/>
-      <c r="S16" s="37">
+      <c r="R16" s="37">
         <f t="shared" si="3"/>
         <v>139250</v>
+      </c>
+      <c r="S16" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
@@ -1635,7 +1644,7 @@
       </c>
       <c r="N17" s="35"/>
       <c r="O17" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16927.5</v>
       </c>
       <c r="P17" s="35"/>
@@ -1643,10 +1652,13 @@
         <f t="shared" si="2"/>
         <v>96637.5</v>
       </c>
-      <c r="R17" s="36"/>
-      <c r="S17" s="37">
+      <c r="R17" s="37">
         <f t="shared" si="3"/>
         <v>96637.5</v>
+      </c>
+      <c r="S17" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
@@ -1670,7 +1682,7 @@
       <c r="M18" s="35"/>
       <c r="N18" s="35"/>
       <c r="O18" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P18" s="35"/>
@@ -1678,9 +1690,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R18" s="36"/>
+      <c r="R18" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="S18" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1719,7 +1734,7 @@
       </c>
       <c r="N19" s="35"/>
       <c r="O19" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31377.5</v>
       </c>
       <c r="P19" s="35"/>
@@ -1727,10 +1742,13 @@
         <f t="shared" si="2"/>
         <v>182887.5</v>
       </c>
-      <c r="R19" s="36"/>
-      <c r="S19" s="37">
+      <c r="R19" s="37">
         <f t="shared" si="3"/>
         <v>182887.5</v>
+      </c>
+      <c r="S19" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
@@ -1754,7 +1772,7 @@
       <c r="M20" s="35"/>
       <c r="N20" s="35"/>
       <c r="O20" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P20" s="35"/>
@@ -1762,9 +1780,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R20" s="36"/>
+      <c r="R20" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="S20" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1789,7 +1810,7 @@
       <c r="M21" s="35"/>
       <c r="N21" s="35"/>
       <c r="O21" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P21" s="35"/>
@@ -1797,9 +1818,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R21" s="36"/>
+      <c r="R21" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="S21" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1824,7 +1848,7 @@
       <c r="M22" s="35"/>
       <c r="N22" s="35"/>
       <c r="O22" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P22" s="35"/>
@@ -1832,9 +1856,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R22" s="36"/>
+      <c r="R22" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="S22" s="37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1861,7 +1888,10 @@
       <c r="O23" s="36"/>
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
-      <c r="R23" s="36"/>
+      <c r="R23" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="S23" s="36"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
@@ -1887,7 +1917,10 @@
       <c r="O24" s="36"/>
       <c r="P24" s="35"/>
       <c r="Q24" s="35"/>
-      <c r="R24" s="36"/>
+      <c r="R24" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="S24" s="36"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
@@ -1913,7 +1946,10 @@
       <c r="O25" s="36"/>
       <c r="P25" s="35"/>
       <c r="Q25" s="35"/>
-      <c r="R25" s="36"/>
+      <c r="R25" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="S25" s="36"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
@@ -1945,7 +1981,10 @@
         <f>+J26+K26+L26+M26+O26+P26</f>
         <v>0</v>
       </c>
-      <c r="R26" s="36"/>
+      <c r="R26" s="37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="S26" s="37">
         <f>+Q26-R26</f>
         <v>0</v>
@@ -1958,68 +1997,68 @@
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="32">
-        <f t="shared" ref="D27:S27" si="5">SUM(D14:D26)</f>
+        <f t="shared" ref="D27:S27" si="6">SUM(D14:D26)</f>
         <v>8</v>
       </c>
       <c r="E27" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="F27" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="G27" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="H27" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="I27" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="J27" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>242650</v>
       </c>
       <c r="K27" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>162090</v>
       </c>
       <c r="L27" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>37000</v>
       </c>
       <c r="M27" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>37000</v>
       </c>
       <c r="N27" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O27" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>103685</v>
       </c>
       <c r="P27" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q27" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>582425</v>
       </c>
       <c r="R27" s="42">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>582425</v>
       </c>
       <c r="S27" s="43">
-        <f t="shared" si="5"/>
-        <v>582425</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="T27" s="44"/>
     </row>
